--- a/Bug_Report.xlsx
+++ b/Bug_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pbhushan/Desktop/Adjust/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C85FFBC-D612-6F4F-9C06-33D3B88D094C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EFC1C1-D714-5849-A100-29E9779E8AB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{C63D5B32-B96C-4FD9-BB93-1D794FD88B1B}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="BUG SUMMARY" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BUG REPORT'!$D$1:$D$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BUG REPORT'!$C$1:$C$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,15 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>EXPECTED RESULT</t>
   </si>
   <si>
     <t>BUG ID</t>
-  </si>
-  <si>
-    <t>RELATED TEST CASE ID</t>
   </si>
   <si>
     <t>BUG DESCRIPTION</t>
@@ -350,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -380,19 +377,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -401,9 +391,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -734,129 +721,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FD1551-7742-4ADB-85FE-6D98417CCCCE}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="42.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="37.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" style="9" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="9"/>
+    <col min="2" max="2" width="14.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="42.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="37.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
+      <c r="H1" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="8" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="11" t="s">
+    </row>
+    <row r="4" spans="1:9" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="8" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="C4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>36</v>
@@ -865,28 +848,27 @@
         <v>37</v>
       </c>
       <c r="G4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="8" customFormat="1" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="C5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="8" customFormat="1" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>13</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>40</v>
@@ -895,146 +877,139 @@
         <v>41</v>
       </c>
       <c r="G5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="I5" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="8" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="8" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="8" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="C7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="F7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="8" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+    <row r="8" spans="1:9" s="8" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="22" t="s">
+      <c r="B8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="22" t="s">
+      <c r="E8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="8" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="8" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="19" t="s">
+      <c r="C9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="F9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="8" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="D1:D9" xr:uid="{3715A7F5-592D-4DB4-B734-E5EAB64EA637}"/>
+  <autoFilter ref="C1:C9" xr:uid="{3715A7F5-592D-4DB4-B734-E5EAB64EA637}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576 D2" xr:uid="{EFCB4E00-76B3-48A4-8E3D-337C3E0CC66A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576 C2" xr:uid="{EFCB4E00-76B3-48A4-8E3D-337C3E0CC66A}">
       <formula1>"Critical,High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{AB69CD76-8DC1-4603-8329-C935E1C60DA8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{AB69CD76-8DC1-4603-8329-C935E1C60DA8}">
       <formula1>"Desktop,Mobile,Desktop&amp;Mobile"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1062,33 +1037,33 @@
     <row r="2" spans="6:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G8" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="6:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F8" s="14" t="s">
+    <row r="9" spans="6:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="6:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F9" s="20" t="s">
+      <c r="G9" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="26">
+      <c r="G10" s="22">
         <v>2</v>
       </c>
     </row>
@@ -1098,7 +1073,7 @@
     </row>
     <row r="12" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="5">
         <v>13</v>
